--- a/output/GNER/eval-performances-comp.xlsx
+++ b/output/GNER/eval-performances-comp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/PycharmProjects/DeepKNLP/output/GNER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D20F6-8D41-424B-BB5E-E453EC5FFB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07865E4-5646-AE44-803B-EB5B0B0A064E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="25600" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,22 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Code-LLaMA-7B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code-LLaMA-13B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LLaMA-7B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LLaMA-13B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GNER-T5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LLaMA-3.2-1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GNER-LLaMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +149,6 @@
   <si>
     <t>[Ours] NER+KGC3</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구어</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>성능</t>
@@ -197,7 +173,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오류율</t>
+    <t>성능증가율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaMA-3.2 (1B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaMA (7B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code-LLaMA (7B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code-LLaMA (13B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaMA (13B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaMA-3.2 (3B)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,9 +209,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -465,35 +471,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,33 +504,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,57 +521,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -905,616 +918,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="20.83203125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="10.83203125" style="4"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="20.83203125" style="2" customWidth="1"/>
+    <col min="3" max="10" width="10.83203125" style="33"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="10.83203125" style="16"/>
+    <col min="13" max="14" width="10.83203125" style="24"/>
+    <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="39" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="32">
+        <v>52.4</v>
+      </c>
+      <c r="D2" s="33">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E2" s="33">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F2" s="33">
+        <v>68.5</v>
+      </c>
+      <c r="G2" s="33">
+        <v>67</v>
+      </c>
+      <c r="H2" s="33">
+        <v>5.3</v>
+      </c>
+      <c r="I2" s="34">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J2" s="35">
+        <v>47.5</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="26">
+        <f>J18/100</f>
+        <v>0.6413269571355833</v>
+      </c>
+      <c r="N2" s="27">
+        <f>J19/100</f>
+        <v>0.64837243002681977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="32">
+        <v>48.4</v>
+      </c>
+      <c r="D3" s="33">
+        <v>48.8</v>
+      </c>
+      <c r="E3" s="33">
+        <v>54.4</v>
+      </c>
+      <c r="F3" s="33">
+        <v>49.9</v>
+      </c>
+      <c r="G3" s="33">
+        <v>49.4</v>
+      </c>
+      <c r="H3" s="33">
+        <v>63</v>
+      </c>
+      <c r="I3" s="34">
+        <v>21</v>
+      </c>
+      <c r="J3" s="36">
+        <v>47.8</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22">
+        <f>N2-M2</f>
+        <v>7.0454728912364706E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="C4" s="32">
+        <v>60.3</v>
+      </c>
+      <c r="D4" s="33">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E4" s="33">
+        <v>64.5</v>
+      </c>
+      <c r="F4" s="33">
+        <v>60.8</v>
+      </c>
+      <c r="G4" s="33">
+        <v>60.5</v>
+      </c>
+      <c r="H4" s="33">
+        <v>63</v>
+      </c>
+      <c r="I4" s="34">
+        <v>43.4</v>
+      </c>
+      <c r="J4" s="36">
+        <v>59.9</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="25">
+        <f>N3/M2</f>
+        <v>1.0985773812946058E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="16">
-        <v>52.4</v>
-      </c>
-      <c r="D2" s="5">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="E2" s="5">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="C5" s="32">
+        <v>63.8</v>
+      </c>
+      <c r="D5" s="33">
+        <v>60.1</v>
+      </c>
+      <c r="E5" s="33">
         <v>68.5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="F5" s="33">
+        <v>56.2</v>
+      </c>
+      <c r="G5" s="33">
+        <v>61.5</v>
+      </c>
+      <c r="H5" s="33">
+        <v>62.5</v>
+      </c>
+      <c r="I5" s="34">
+        <v>49.8</v>
+      </c>
+      <c r="J5" s="36">
+        <v>60.3</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="21">
+        <f>1-M2</f>
+        <v>0.3586730428644167</v>
+      </c>
+      <c r="N5" s="22">
+        <f>1-N2</f>
+        <v>0.35162756997318023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="32">
+        <v>53.5</v>
+      </c>
+      <c r="D6" s="33">
+        <v>59.4</v>
+      </c>
+      <c r="E6" s="33">
+        <v>65</v>
+      </c>
+      <c r="F6" s="33">
+        <v>60.8</v>
+      </c>
+      <c r="G6" s="33">
+        <v>61.1</v>
+      </c>
+      <c r="H6" s="33">
+        <v>42.4</v>
+      </c>
+      <c r="I6" s="34">
+        <v>31.7</v>
+      </c>
+      <c r="J6" s="36">
+        <v>53.4</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22">
+        <f>M5-N5</f>
+        <v>7.0454728912364706E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="32">
+        <v>54.2</v>
+      </c>
+      <c r="D7" s="33">
+        <v>60.9</v>
+      </c>
+      <c r="E7" s="33">
+        <v>64.5</v>
+      </c>
+      <c r="F7" s="33">
+        <v>61.4</v>
+      </c>
+      <c r="G7" s="33">
+        <v>63.5</v>
+      </c>
+      <c r="H7" s="33">
+        <v>48.7</v>
+      </c>
+      <c r="I7" s="34">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="J7" s="36">
+        <v>55.6</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="25">
+        <f>N6/M5</f>
+        <v>1.9643162572158385E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="37">
+        <v>60.6</v>
+      </c>
+      <c r="D8" s="38">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="E8" s="38">
+        <v>69.5</v>
+      </c>
+      <c r="F8" s="38">
+        <v>74.8</v>
+      </c>
+      <c r="G8" s="38">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H8" s="38">
+        <v>57.2</v>
+      </c>
+      <c r="I8" s="39">
+        <v>42.8</v>
+      </c>
+      <c r="J8" s="40">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="41">
+        <v>56.8</v>
+      </c>
+      <c r="D9" s="42">
+        <v>58.7</v>
+      </c>
+      <c r="E9" s="42">
+        <v>72.3</v>
+      </c>
+      <c r="F9" s="42">
+        <v>64.5</v>
+      </c>
+      <c r="G9" s="42">
+        <v>68</v>
+      </c>
+      <c r="H9" s="42">
+        <v>54.5</v>
+      </c>
+      <c r="I9" s="43">
+        <v>41.4</v>
+      </c>
+      <c r="J9" s="35">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="32">
+        <v>62.6</v>
+      </c>
+      <c r="D10" s="33">
+        <v>58.2</v>
+      </c>
+      <c r="E10" s="33">
+        <v>76.7</v>
+      </c>
+      <c r="F10" s="33">
         <v>67</v>
       </c>
-      <c r="H2" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="I2" s="17">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="J2" s="20">
+      <c r="G10" s="33">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H10" s="33">
+        <v>58.6</v>
+      </c>
+      <c r="I10" s="34">
+        <v>48.6</v>
+      </c>
+      <c r="J10" s="36">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="32">
+        <v>62.1</v>
+      </c>
+      <c r="D11" s="33">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E11" s="33">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F11" s="33">
+        <v>73.7</v>
+      </c>
+      <c r="G11" s="33">
+        <v>68.7</v>
+      </c>
+      <c r="H11" s="33">
+        <v>63</v>
+      </c>
+      <c r="I11" s="34">
+        <v>49.8</v>
+      </c>
+      <c r="J11" s="36">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="32">
+        <v>68.2</v>
+      </c>
+      <c r="D12" s="33">
+        <v>68.7</v>
+      </c>
+      <c r="E12" s="33">
+        <v>81.2</v>
+      </c>
+      <c r="F12" s="33">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="G12" s="33">
+        <v>76.7</v>
+      </c>
+      <c r="H12" s="33">
+        <v>62.5</v>
+      </c>
+      <c r="I12" s="34">
+        <v>51</v>
+      </c>
+      <c r="J12" s="36">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="37">
+        <v>63.1</v>
+      </c>
+      <c r="D13" s="38">
+        <v>68.2</v>
+      </c>
+      <c r="E13" s="38">
+        <v>75.7</v>
+      </c>
+      <c r="F13" s="38">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G13" s="38">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H13" s="38">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I13" s="39">
         <v>47.5</v>
       </c>
-      <c r="L2" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="41">
-        <f>J14/100</f>
-        <v>0.62113660059787967</v>
-      </c>
-      <c r="N2" s="41">
-        <f>J16/100</f>
-        <v>0.62169399498083056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="16">
-        <v>48.4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>48.8</v>
-      </c>
-      <c r="E3" s="5">
-        <v>54.4</v>
-      </c>
-      <c r="F3" s="5">
-        <v>49.9</v>
-      </c>
-      <c r="G3" s="5">
-        <v>49.4</v>
-      </c>
-      <c r="H3" s="5">
-        <v>63</v>
-      </c>
-      <c r="I3" s="17">
-        <v>21</v>
-      </c>
-      <c r="J3" s="21">
-        <v>47.8</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43">
-        <f>N2-M2</f>
-        <v>5.5739438295088206E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="16">
-        <v>60.3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E4" s="5">
-        <v>64.5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>60.8</v>
-      </c>
-      <c r="G4" s="5">
-        <v>60.5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>63</v>
-      </c>
-      <c r="I4" s="17">
-        <v>43.4</v>
-      </c>
-      <c r="J4" s="21">
-        <v>59.9</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="41">
-        <f>1-M2</f>
-        <v>0.37886339940212033</v>
-      </c>
-      <c r="N4" s="41">
-        <f>1-N2</f>
-        <v>0.37830600501916944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="16">
-        <v>63.8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>60.1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>68.5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>56.2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>61.5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>62.5</v>
-      </c>
-      <c r="I5" s="17">
-        <v>49.8</v>
-      </c>
-      <c r="J5" s="21">
-        <v>60.3</v>
-      </c>
-      <c r="L5" s="40" t="s">
+      <c r="J13" s="40">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41">
-        <f>M4-N4</f>
-        <v>5.5739438295088206E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="16">
-        <v>53.5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>59.4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>65</v>
-      </c>
-      <c r="F6" s="5">
-        <v>60.8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>61.1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>42.4</v>
-      </c>
-      <c r="I6" s="17">
-        <v>31.7</v>
-      </c>
-      <c r="J6" s="21">
-        <v>53.4</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43">
-        <f>N5/M4</f>
-        <v>1.4712278457895359E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="16">
-        <v>54.2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>60.9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>64.5</v>
-      </c>
-      <c r="F7" s="5">
-        <v>61.4</v>
-      </c>
-      <c r="G7" s="5">
-        <v>63.5</v>
-      </c>
-      <c r="H7" s="5">
-        <v>48.7</v>
-      </c>
-      <c r="I7" s="17">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="J7" s="21">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="C14" s="41">
+        <v>61.008522722276297</v>
+      </c>
+      <c r="D14" s="42">
+        <v>65.942422591415706</v>
+      </c>
+      <c r="E14" s="42">
+        <v>74.241811559900128</v>
+      </c>
+      <c r="F14" s="42">
+        <v>66.011968692251727</v>
+      </c>
+      <c r="G14" s="42">
+        <v>68.488241876306262</v>
+      </c>
+      <c r="H14" s="42">
+        <v>57.031987409858267</v>
+      </c>
+      <c r="I14" s="43">
+        <v>42.070665566507351</v>
+      </c>
+      <c r="J14" s="43">
+        <v>62.113660059787968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="32">
+        <v>60.466786350475651</v>
+      </c>
+      <c r="D15" s="44">
+        <v>64.523160757944609</v>
+      </c>
+      <c r="E15" s="44">
+        <v>72.945410912813998</v>
+      </c>
+      <c r="F15" s="44">
+        <v>64.924806314307133</v>
+      </c>
+      <c r="G15" s="44">
+        <v>69.85991865745288</v>
+      </c>
+      <c r="H15" s="44">
+        <v>53.9789473634968</v>
+      </c>
+      <c r="I15" s="34">
+        <v>41.666666662024419</v>
+      </c>
+      <c r="J15" s="34">
+        <v>61.195099574073637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="32">
+        <v>61.875228013967558</v>
+      </c>
+      <c r="D16" s="44">
+        <v>65.238611708666227</v>
+      </c>
+      <c r="E16" s="44">
+        <v>74.664530337477117</v>
+      </c>
+      <c r="F16" s="44">
+        <v>65.54545454045487</v>
+      </c>
+      <c r="G16" s="44">
+        <v>68.149146446039282</v>
+      </c>
+      <c r="H16" s="44">
+        <v>56.507671428108942</v>
+      </c>
+      <c r="I16" s="34">
+        <v>43.205154011867329</v>
+      </c>
+      <c r="J16" s="34">
+        <v>62.169399498083052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="37">
+        <v>61.833997820296517</v>
+      </c>
+      <c r="D17" s="38">
+        <v>65.674066048058847</v>
+      </c>
+      <c r="E17" s="38">
+        <v>74.298405002065351</v>
+      </c>
+      <c r="F17" s="38">
+        <v>63.212121207121598</v>
+      </c>
+      <c r="G17" s="38">
+        <v>69.09173067733542</v>
+      </c>
+      <c r="H17" s="38">
+        <v>54.676258987868827</v>
+      </c>
+      <c r="I17" s="39">
+        <v>42.185924576932791</v>
+      </c>
+      <c r="J17" s="39">
+        <v>61.56750061709706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="18">
-        <v>60.6</v>
-      </c>
-      <c r="D8" s="7">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="E8" s="7">
-        <v>69.5</v>
-      </c>
-      <c r="F8" s="7">
-        <v>74.8</v>
-      </c>
-      <c r="G8" s="7">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="H8" s="7">
-        <v>57.2</v>
-      </c>
-      <c r="I8" s="19">
-        <v>42.8</v>
-      </c>
-      <c r="J8" s="22">
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="14">
-        <v>56.8</v>
-      </c>
-      <c r="D9" s="6">
-        <v>58.7</v>
-      </c>
-      <c r="E9" s="6">
-        <v>72.3</v>
-      </c>
-      <c r="F9" s="6">
-        <v>64.5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>68</v>
-      </c>
-      <c r="H9" s="6">
-        <v>54.5</v>
-      </c>
-      <c r="I9" s="15">
-        <v>41.4</v>
-      </c>
-      <c r="J9" s="20">
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="B18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="41">
+        <v>65.571376409745923</v>
+      </c>
+      <c r="D18" s="42">
+        <v>66.833194555098586</v>
+      </c>
+      <c r="E18" s="42">
+        <v>70.884545632717817</v>
+      </c>
+      <c r="F18" s="42">
+        <v>69.856459325141429</v>
+      </c>
+      <c r="G18" s="42">
+        <v>72.130384162633703</v>
+      </c>
+      <c r="H18" s="42">
+        <v>62.3348956065119</v>
+      </c>
+      <c r="I18" s="43">
+        <v>41.318014303059073</v>
+      </c>
+      <c r="J18" s="34">
+        <v>64.132695713558334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="16">
-        <v>62.6</v>
-      </c>
-      <c r="D10" s="5">
-        <v>58.2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>76.7</v>
-      </c>
-      <c r="F10" s="5">
-        <v>67</v>
-      </c>
-      <c r="G10" s="5">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="H10" s="5">
-        <v>58.6</v>
-      </c>
-      <c r="I10" s="17">
-        <v>48.6</v>
-      </c>
-      <c r="J10" s="21">
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="B19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="32">
+        <v>64.551422314471068</v>
+      </c>
+      <c r="D19" s="44">
+        <v>66.975729474140238</v>
+      </c>
+      <c r="E19" s="44">
+        <v>76.40901770836382</v>
+      </c>
+      <c r="F19" s="44">
+        <v>63.942090177477731</v>
+      </c>
+      <c r="G19" s="44">
+        <v>70.015985379791417</v>
+      </c>
+      <c r="H19" s="44">
+        <v>69.085661267083083</v>
+      </c>
+      <c r="I19" s="34">
+        <v>42.880794697446483</v>
+      </c>
+      <c r="J19" s="34">
+        <v>64.837243002681973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="16">
-        <v>62.1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="E11" s="5">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="F11" s="5">
-        <v>73.7</v>
-      </c>
-      <c r="G11" s="5">
-        <v>68.7</v>
-      </c>
-      <c r="H11" s="5">
-        <v>63</v>
-      </c>
-      <c r="I11" s="17">
-        <v>49.8</v>
-      </c>
-      <c r="J11" s="21">
-        <v>66.099999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16">
-        <v>68.2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>68.7</v>
-      </c>
-      <c r="E12" s="5">
-        <v>81.2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="G12" s="5">
-        <v>76.7</v>
-      </c>
-      <c r="H12" s="5">
-        <v>62.5</v>
-      </c>
-      <c r="I12" s="17">
-        <v>51</v>
-      </c>
-      <c r="J12" s="21">
-        <v>69.099999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="18">
-        <v>63.1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>68.2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>75.7</v>
-      </c>
-      <c r="F13" s="7">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="G13" s="7">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="H13" s="7">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="I13" s="19">
-        <v>47.5</v>
-      </c>
-      <c r="J13" s="22">
-        <v>66.099999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="32">
+        <v>63.08216584126842</v>
+      </c>
+      <c r="D20" s="44">
+        <v>65.374894687519117</v>
+      </c>
+      <c r="E20" s="44">
+        <v>76.641284209863599</v>
+      </c>
+      <c r="F20" s="44">
+        <v>71.604160095850247</v>
+      </c>
+      <c r="G20" s="44">
+        <v>67.953299971171404</v>
+      </c>
+      <c r="H20" s="44">
+        <v>63.988063514224223</v>
+      </c>
+      <c r="I20" s="34">
+        <v>44.879898857733927</v>
+      </c>
+      <c r="J20" s="34">
+        <v>64.789109596804423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="36">
-        <v>61.008522722276297</v>
-      </c>
-      <c r="D14" s="37">
-        <v>65.942422591415706</v>
-      </c>
-      <c r="E14" s="37">
-        <v>74.241811559900128</v>
-      </c>
-      <c r="F14" s="37">
-        <v>66.011968692251727</v>
-      </c>
-      <c r="G14" s="37">
-        <v>68.488241876306262</v>
-      </c>
-      <c r="H14" s="37">
-        <v>57.031987409858267</v>
-      </c>
-      <c r="I14" s="38">
-        <v>42.070665566507351</v>
-      </c>
-      <c r="J14" s="32">
-        <v>62.113660059787968</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="31">
-        <v>60.466786350475651</v>
-      </c>
-      <c r="D15" s="4">
-        <v>64.523160757944609</v>
-      </c>
-      <c r="E15" s="4">
-        <v>72.945410912813998</v>
-      </c>
-      <c r="F15" s="4">
-        <v>64.924806314307133</v>
-      </c>
-      <c r="G15" s="4">
-        <v>69.85991865745288</v>
-      </c>
-      <c r="H15" s="4">
-        <v>53.9789473634968</v>
-      </c>
-      <c r="I15" s="32">
-        <v>41.666666662024419</v>
-      </c>
-      <c r="J15" s="32">
-        <v>61.195099574073637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="31">
-        <v>61.875228013967558</v>
-      </c>
-      <c r="D16" s="4">
-        <v>65.238611708666227</v>
-      </c>
-      <c r="E16" s="4">
-        <v>74.664530337477117</v>
-      </c>
-      <c r="F16" s="4">
-        <v>65.54545454045487</v>
-      </c>
-      <c r="G16" s="4">
-        <v>68.149146446039282</v>
-      </c>
-      <c r="H16" s="4">
-        <v>56.507671428108942</v>
-      </c>
-      <c r="I16" s="32">
-        <v>43.205154011867329</v>
-      </c>
-      <c r="J16" s="32">
-        <v>62.169399498083052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="33">
-        <v>61.833997820296517</v>
-      </c>
-      <c r="D17" s="34">
-        <v>65.674066048058847</v>
-      </c>
-      <c r="E17" s="34">
-        <v>74.298405002065351</v>
-      </c>
-      <c r="F17" s="34">
-        <v>63.212121207121598</v>
-      </c>
-      <c r="G17" s="34">
-        <v>69.09173067733542</v>
-      </c>
-      <c r="H17" s="34">
-        <v>54.676258987868827</v>
-      </c>
-      <c r="I17" s="35">
-        <v>42.185924576932791</v>
-      </c>
-      <c r="J17" s="35">
-        <v>61.56750061709706</v>
+      <c r="B21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="37">
+        <v>64.234079168857733</v>
+      </c>
+      <c r="D21" s="38">
+        <v>60.021668467372947</v>
+      </c>
+      <c r="E21" s="38">
+        <v>77.972166993008912</v>
+      </c>
+      <c r="F21" s="38">
+        <v>70.575789627764834</v>
+      </c>
+      <c r="G21" s="38">
+        <v>70.438850518511543</v>
+      </c>
+      <c r="H21" s="38">
+        <v>60.199894787289509</v>
+      </c>
+      <c r="I21" s="39">
+        <v>40.824828156285562</v>
+      </c>
+      <c r="J21" s="39">
+        <v>63.466753959870147</v>
       </c>
     </row>
   </sheetData>
@@ -1522,94 +1670,6 @@
     <sortCondition descending="1" ref="J13:J14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
